--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -483,10 +507,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -530,28 +554,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="3">
+      <c r="A14" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="3">
+      <c r="G14" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -576,28 +600,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="3">
+      <c r="B16" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="3">
+      <c r="C16" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="D16" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="E16" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="3">
+      <c r="F16" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="3">
+      <c r="G16" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="3">
+      <c r="H16" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="3">
+      <c r="I16" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -859,10 +883,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -906,28 +930,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="3">
+      <c r="A27" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="3">
+      <c r="B27" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="3">
+      <c r="C27" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D27" t="s" s="3">
+      <c r="D27" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="3">
+      <c r="F27" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="3">
+      <c r="H27" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -952,28 +976,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="3">
+      <c r="I29" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1119,10 +1143,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1166,28 +1190,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="3">
+      <c r="A36" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B36" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="3">
+      <c r="C36" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="3">
+      <c r="D36" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="3">
+      <c r="F36" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="3">
+      <c r="G36" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="3">
+      <c r="H36" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1212,28 +1236,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="3">
+      <c r="I38" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1379,10 +1403,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1426,28 +1450,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="3">
+      <c r="A45" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="3">
+      <c r="C45" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="3">
+      <c r="D45" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="F45" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="3">
+      <c r="G45" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="3">
+      <c r="H45" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1472,28 +1496,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="C47" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="3">
+      <c r="I47" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1755,10 +1779,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1802,28 +1826,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="3">
+      <c r="A58" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="3">
+      <c r="C58" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="3">
+      <c r="D58" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1848,28 +1872,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="3">
+      <c r="C60" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="3">
+      <c r="D60" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="3">
+      <c r="I60" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2160,10 +2184,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K70" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2207,28 +2231,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="3">
+      <c r="A72" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="3">
+      <c r="C72" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D72" t="s" s="3">
+      <c r="D72" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2253,28 +2277,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="3">
+      <c r="C74" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="3">
+      <c r="D74" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="3">
+      <c r="I74" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2768,10 +2792,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2815,28 +2839,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="3">
+      <c r="A93" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="3">
+      <c r="C93" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="3">
+      <c r="D93" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2861,28 +2885,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="3">
+      <c r="C95" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="3">
+      <c r="D95" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="3">
+      <c r="I95" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3347,10 +3371,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="J111" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K111" s="3" t="s">
+      <c r="K111" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3394,28 +3418,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="3">
+      <c r="A113" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="3">
+      <c r="C113" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D113" t="s" s="3">
+      <c r="D113" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3440,28 +3464,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="3">
+      <c r="C115" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="3">
+      <c r="D115" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="3">
+      <c r="I115" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3607,10 +3631,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="J120" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K120" s="3" t="s">
+      <c r="K120" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3654,28 +3678,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="3">
+      <c r="A122" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="3">
+      <c r="C122" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D122" t="s" s="3">
+      <c r="D122" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3700,28 +3724,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="3">
+      <c r="C124" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="3">
+      <c r="D124" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="3">
+      <c r="I124" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4099,10 +4123,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="3" t="s">
+      <c r="J137" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K137" s="3" t="s">
+      <c r="K137" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4146,28 +4170,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="3">
+      <c r="A139" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="3">
+      <c r="C139" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D139" t="s" s="3">
+      <c r="D139" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4192,28 +4216,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="3">
+      <c r="C141" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="3">
+      <c r="D141" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="3">
+      <c r="I141" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4533,10 +4557,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="3" t="s">
+      <c r="J152" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="3" t="s">
+      <c r="K152" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4580,28 +4604,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="A154" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="3">
+      <c r="C154" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="3">
+      <c r="D154" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4626,28 +4650,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="3">
+      <c r="B156" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="3">
+      <c r="C156" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="3">
+      <c r="D156" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="F156" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="3">
+      <c r="G156" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="3">
+      <c r="H156" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="3">
+      <c r="I156" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4735,10 +4759,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="3" t="s">
+      <c r="J159" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K159" s="3" t="s">
+      <c r="K159" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4782,28 +4806,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="3">
+      <c r="A161" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="3">
+      <c r="C161" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D161" t="s" s="3">
+      <c r="D161" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4828,28 +4852,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="3">
+      <c r="B163" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="3">
+      <c r="C163" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="3">
+      <c r="D163" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="3">
+      <c r="E163" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="3">
+      <c r="F163" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="3">
+      <c r="G163" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="3">
+      <c r="H163" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="3">
+      <c r="I163" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4937,10 +4961,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="J166" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="3" t="s">
+      <c r="K166" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
